--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="840" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1460" yWindow="1020" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
   <si>
     <t>db_name</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>band-width</t>
+  </si>
+  <si>
+    <t>tbl</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>param</t>
   </si>
 </sst>
 </file>
@@ -501,8 +510,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -549,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +624,30 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -584,6 +665,30 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -873,15 +978,18 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -889,31 +997,40 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -921,15 +1038,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -937,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -945,7 +1065,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -953,7 +1073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -961,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -969,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -977,20 +1097,26 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1018,15 +1144,18 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1034,140 +1163,191 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1187,31 +1367,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C6" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1219,72 +1405,97 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1295,27 +1506,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1323,63 +1537,84 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>113</v>
       </c>
@@ -1387,7 +1622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>114</v>
       </c>
@@ -1395,7 +1630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -1416,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1428,15 +1663,18 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -1444,7 +1682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -1452,108 +1690,147 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1020" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5420" yWindow="860" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>db_name</t>
   </si>
@@ -181,9 +181,6 @@
     <t>organ</t>
   </si>
   <si>
-    <t>sub-piece label</t>
-  </si>
-  <si>
     <t>Magnification</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>hardware</t>
   </si>
   <si>
-    <t>Software version</t>
-  </si>
-  <si>
     <t>Image_size</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>tangentail_image_width</t>
   </si>
   <si>
-    <t>band-width</t>
-  </si>
-  <si>
     <t>tbl</t>
   </si>
   <si>
@@ -425,6 +416,21 @@
   </si>
   <si>
     <t>param</t>
+  </si>
+  <si>
+    <t>Subpiece_label</t>
+  </si>
+  <si>
+    <t>Software_version</t>
+  </si>
+  <si>
+    <t>band_width</t>
+  </si>
+  <si>
+    <t>meas_date</t>
+  </si>
+  <si>
+    <t>Measurement_date</t>
   </si>
 </sst>
 </file>
@@ -959,7 +965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,15 +992,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,10 +1008,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1013,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1024,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1046,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1062,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1070,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1083,7 +1089,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1094,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1102,10 +1108,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1113,10 +1119,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1152,15 +1158,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1168,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1179,21 +1185,21 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1204,7 +1210,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1215,7 +1221,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1226,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1237,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1248,29 +1254,29 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1278,10 +1284,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1289,10 +1295,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1300,10 +1306,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1311,10 +1317,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1322,10 +1328,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1333,10 +1339,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1344,10 +1350,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1391,15 +1397,15 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -1410,43 +1416,43 @@
         <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1457,7 +1463,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1468,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1479,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1487,10 +1493,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1508,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1526,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1534,7 +1540,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1542,10 +1548,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1556,40 +1562,40 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1597,45 +1603,45 @@
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1651,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1671,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1679,7 +1685,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1687,106 +1693,106 @@
         <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>115</v>
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1794,43 +1800,54 @@
         <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>132</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="860" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2740" yWindow="160" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="tree" sheetId="4" r:id="rId3"/>
     <sheet name="sample" sheetId="5" r:id="rId4"/>
     <sheet name="subsample" sheetId="1" r:id="rId5"/>
+    <sheet name="Ring+Cell" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="238">
   <si>
     <t>db_name</t>
   </si>
@@ -431,13 +432,322 @@
   </si>
   <si>
     <t>Measurement_date</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>ring_width</t>
+  </si>
+  <si>
+    <t>ring_area</t>
+  </si>
+  <si>
+    <t>eww</t>
+  </si>
+  <si>
+    <t>lww</t>
+  </si>
+  <si>
+    <t>ewd</t>
+  </si>
+  <si>
+    <t>lwd</t>
+  </si>
+  <si>
+    <t>mxd</t>
+  </si>
+  <si>
+    <t>mnd</t>
+  </si>
+  <si>
+    <t>rvgi</t>
+  </si>
+  <si>
+    <t>rvsf</t>
+  </si>
+  <si>
+    <t>rgsgv</t>
+  </si>
+  <si>
+    <t>cno</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>cta</t>
+  </si>
+  <si>
+    <t>rcta</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t>majax</t>
+  </si>
+  <si>
+    <t>nbrno</t>
+  </si>
+  <si>
+    <t>nbrdst</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>rdist</t>
+  </si>
+  <si>
+    <t>drad</t>
+  </si>
+  <si>
+    <t>dtan</t>
+  </si>
+  <si>
+    <t>ldrad</t>
+  </si>
+  <si>
+    <t>ldtan</t>
+  </si>
+  <si>
+    <t>cwtpi</t>
+  </si>
+  <si>
+    <t>cwtba</t>
+  </si>
+  <si>
+    <t>cwtle</t>
+  </si>
+  <si>
+    <t>cwtri</t>
+  </si>
+  <si>
+    <t>cwttan</t>
+  </si>
+  <si>
+    <t>cwtrad</t>
+  </si>
+  <si>
+    <t>cwt</t>
+  </si>
+  <si>
+    <t>rtsr</t>
+  </si>
+  <si>
+    <t>ctsr</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>cwa</t>
+  </si>
+  <si>
+    <t>2cwtrad</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>rw_d</t>
+  </si>
+  <si>
+    <t>bl_d</t>
+  </si>
+  <si>
+    <t>xray_d</t>
+  </si>
+  <si>
+    <t>silviscan_d</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>EWW</t>
+  </si>
+  <si>
+    <t>LWW</t>
+  </si>
+  <si>
+    <t>EWD</t>
+  </si>
+  <si>
+    <t>LWD</t>
+  </si>
+  <si>
+    <t>MXD</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>RVGI</t>
+  </si>
+  <si>
+    <t>RVSF</t>
+  </si>
+  <si>
+    <t>RGSGV</t>
+  </si>
+  <si>
+    <t>Xray</t>
+  </si>
+  <si>
+    <t>roxas</t>
+  </si>
+  <si>
+    <t>roxas_vessel</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>RCTA</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>MajAx</t>
+  </si>
+  <si>
+    <t>NbrNo</t>
+  </si>
+  <si>
+    <t>NbrDst</t>
+  </si>
+  <si>
+    <t>RadDistR</t>
+  </si>
+  <si>
+    <t>RRadDistR</t>
+  </si>
+  <si>
+    <t>Drad</t>
+  </si>
+  <si>
+    <t>Dtan</t>
+  </si>
+  <si>
+    <t>Ldrad</t>
+  </si>
+  <si>
+    <t>Ldtan</t>
+  </si>
+  <si>
+    <t>CWTpi</t>
+  </si>
+  <si>
+    <t>roxas_full</t>
+  </si>
+  <si>
+    <t>roxas_row</t>
+  </si>
+  <si>
+    <t>CWTba</t>
+  </si>
+  <si>
+    <t>CWTle</t>
+  </si>
+  <si>
+    <t>CWTri</t>
+  </si>
+  <si>
+    <t>CWTtan</t>
+  </si>
+  <si>
+    <t>CWTrad</t>
+  </si>
+  <si>
+    <t>CWTall</t>
+  </si>
+  <si>
+    <t>rTSR</t>
+  </si>
+  <si>
+    <t>cTSR</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CWA</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Kh</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Dh</t>
+  </si>
+  <si>
+    <t>CNo</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Silviscan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +808,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -516,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,8 +925,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -611,8 +962,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -654,6 +1015,19 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -695,6 +1069,19 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1659,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1859,4 +2246,732 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="160" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2740" yWindow="160" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -12,8 +12,14 @@
     <sheet name="tree" sheetId="4" r:id="rId3"/>
     <sheet name="sample" sheetId="5" r:id="rId4"/>
     <sheet name="subsample" sheetId="1" r:id="rId5"/>
-    <sheet name="Ring+Cell" sheetId="6" r:id="rId6"/>
+    <sheet name="year" sheetId="6" r:id="rId6"/>
+    <sheet name="cell" sheetId="7" r:id="rId7"/>
+    <sheet name="settings" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">cell!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">year!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="242">
   <si>
     <t>db_name</t>
   </si>
@@ -434,18 +440,9 @@
     <t>Measurement_date</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>ring_width</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>cwa</t>
   </si>
   <si>
-    <t>2cwtrad</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -587,12 +581,6 @@
     <t>dh</t>
   </si>
   <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
     <t>MRW</t>
   </si>
   <si>
@@ -741,6 +729,36 @@
   </si>
   <si>
     <t>Silviscan</t>
+  </si>
+  <si>
+    <t>cwt2rad</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Ks*</t>
+  </si>
+  <si>
+    <t>ROXAS version</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>x_cal</t>
+  </si>
+  <si>
+    <t>y_cal</t>
+  </si>
+  <si>
+    <t>Xcal</t>
+  </si>
+  <si>
+    <t>Ycal</t>
   </si>
 </sst>
 </file>
@@ -841,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -951,8 +969,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -971,9 +1027,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1028,6 +1083,25 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1082,6 +1156,25 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1352,7 +1445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1363,7 +1456,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1763,7 +1856,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2047,7 +2140,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2250,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2261,711 +2354,226 @@
     <col min="2" max="2" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="C18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>233</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="10"/>
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C16"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2974,4 +2582,471 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C35"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="160" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="year" sheetId="6" r:id="rId6"/>
     <sheet name="cell" sheetId="7" r:id="rId7"/>
     <sheet name="settings" sheetId="8" r:id="rId8"/>
+    <sheet name="publication" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">cell!$A$1:$C$35</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="254">
   <si>
     <t>db_name</t>
   </si>
@@ -759,6 +760,42 @@
   </si>
   <si>
     <t>Ycal</t>
+  </si>
+  <si>
+    <t>First_author_last_name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Doi</t>
+  </si>
+  <si>
+    <t>first_author_last_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>Spatial Resolution [pixels/µm]</t>
+  </si>
+  <si>
+    <t>File created</t>
   </si>
 </sst>
 </file>
@@ -859,8 +896,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1028,7 +1073,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1102,6 +1147,10 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1175,6 +1224,10 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1856,7 +1909,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2140,7 +2193,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2588,7 +2641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3009,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3039,6 +3092,22 @@
       </c>
       <c r="B3" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3049,4 +3118,88 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -1498,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1739,8 +1739,8 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
@@ -1750,8 +1750,8 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>128</v>
@@ -3064,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="257">
   <si>
     <t>db_name</t>
   </si>
@@ -796,6 +796,15 @@
   </si>
   <si>
     <t>File created</t>
+  </si>
+  <si>
+    <t>VNo</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>vd</t>
   </si>
 </sst>
 </file>
@@ -896,8 +905,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1073,7 +1092,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1151,6 +1170,11 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1228,6 +1252,11 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1673,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2396,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2622,6 +2651,39 @@
         <v>228</v>
       </c>
       <c r="C19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
         <v>194</v>
       </c>
     </row>

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -905,8 +905,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1092,7 +1094,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1175,6 +1177,7 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1257,6 +1260,7 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1527,7 +1531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2221,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2427,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2704,7 +2708,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -552,259 +552,259 @@
     <t>cwa</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>rw_d</t>
+  </si>
+  <si>
+    <t>bl_d</t>
+  </si>
+  <si>
+    <t>xray_d</t>
+  </si>
+  <si>
+    <t>silviscan_d</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>EWW</t>
+  </si>
+  <si>
+    <t>LWW</t>
+  </si>
+  <si>
+    <t>EWD</t>
+  </si>
+  <si>
+    <t>LWD</t>
+  </si>
+  <si>
+    <t>MXD</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>RVGI</t>
+  </si>
+  <si>
+    <t>RVSF</t>
+  </si>
+  <si>
+    <t>RGSGV</t>
+  </si>
+  <si>
+    <t>Xray</t>
+  </si>
+  <si>
+    <t>roxas</t>
+  </si>
+  <si>
+    <t>roxas_vessel</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>RCTA</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>MajAx</t>
+  </si>
+  <si>
+    <t>NbrNo</t>
+  </si>
+  <si>
+    <t>NbrDst</t>
+  </si>
+  <si>
+    <t>RadDistR</t>
+  </si>
+  <si>
+    <t>RRadDistR</t>
+  </si>
+  <si>
+    <t>Drad</t>
+  </si>
+  <si>
+    <t>Dtan</t>
+  </si>
+  <si>
+    <t>Ldrad</t>
+  </si>
+  <si>
+    <t>Ldtan</t>
+  </si>
+  <si>
+    <t>CWTpi</t>
+  </si>
+  <si>
+    <t>roxas_full</t>
+  </si>
+  <si>
+    <t>roxas_row</t>
+  </si>
+  <si>
+    <t>CWTba</t>
+  </si>
+  <si>
+    <t>CWTle</t>
+  </si>
+  <si>
+    <t>CWTri</t>
+  </si>
+  <si>
+    <t>CWTtan</t>
+  </si>
+  <si>
+    <t>CWTrad</t>
+  </si>
+  <si>
+    <t>CWTall</t>
+  </si>
+  <si>
+    <t>rTSR</t>
+  </si>
+  <si>
+    <t>cTSR</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CWA</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Kh</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Dh</t>
+  </si>
+  <si>
+    <t>CNo</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Silviscan</t>
+  </si>
+  <si>
+    <t>cwt2rad</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Ks*</t>
+  </si>
+  <si>
+    <t>ROXAS version</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>x_cal</t>
+  </si>
+  <si>
+    <t>y_cal</t>
+  </si>
+  <si>
+    <t>Xcal</t>
+  </si>
+  <si>
+    <t>Ycal</t>
+  </si>
+  <si>
+    <t>First_author_last_name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Doi</t>
+  </si>
+  <si>
+    <t>first_author_last_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>Spatial Resolution [pixels/µm]</t>
+  </si>
+  <si>
+    <t>File created</t>
+  </si>
+  <si>
+    <t>VNo</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
     <t>row</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>rw_d</t>
-  </si>
-  <si>
-    <t>bl_d</t>
-  </si>
-  <si>
-    <t>xray_d</t>
-  </si>
-  <si>
-    <t>silviscan_d</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>ks</t>
-  </si>
-  <si>
-    <t>dh</t>
-  </si>
-  <si>
-    <t>MRW</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>EWW</t>
-  </si>
-  <si>
-    <t>LWW</t>
-  </si>
-  <si>
-    <t>EWD</t>
-  </si>
-  <si>
-    <t>LWD</t>
-  </si>
-  <si>
-    <t>MXD</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>RVGI</t>
-  </si>
-  <si>
-    <t>RVSF</t>
-  </si>
-  <si>
-    <t>RGSGV</t>
-  </si>
-  <si>
-    <t>Xray</t>
-  </si>
-  <si>
-    <t>roxas</t>
-  </si>
-  <si>
-    <t>roxas_vessel</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>RCTA</t>
-  </si>
-  <si>
-    <t>Asp</t>
-  </si>
-  <si>
-    <t>MajAx</t>
-  </si>
-  <si>
-    <t>NbrNo</t>
-  </si>
-  <si>
-    <t>NbrDst</t>
-  </si>
-  <si>
-    <t>RadDistR</t>
-  </si>
-  <si>
-    <t>RRadDistR</t>
-  </si>
-  <si>
-    <t>Drad</t>
-  </si>
-  <si>
-    <t>Dtan</t>
-  </si>
-  <si>
-    <t>Ldrad</t>
-  </si>
-  <si>
-    <t>Ldtan</t>
-  </si>
-  <si>
-    <t>CWTpi</t>
-  </si>
-  <si>
-    <t>roxas_full</t>
-  </si>
-  <si>
-    <t>roxas_row</t>
-  </si>
-  <si>
-    <t>CWTba</t>
-  </si>
-  <si>
-    <t>CWTle</t>
-  </si>
-  <si>
-    <t>CWTri</t>
-  </si>
-  <si>
-    <t>CWTtan</t>
-  </si>
-  <si>
-    <t>CWTrad</t>
-  </si>
-  <si>
-    <t>CWTall</t>
-  </si>
-  <si>
-    <t>rTSR</t>
-  </si>
-  <si>
-    <t>cTSR</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>CWA</t>
-  </si>
-  <si>
     <t>ROW</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>Kh</t>
-  </si>
-  <si>
-    <t>Ks</t>
-  </si>
-  <si>
-    <t>Dh</t>
-  </si>
-  <si>
-    <t>CNo</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>Silviscan</t>
-  </si>
-  <si>
-    <t>cwt2rad</t>
-  </si>
-  <si>
-    <t>bend</t>
-  </si>
-  <si>
-    <t>Bend</t>
-  </si>
-  <si>
-    <t>Ks*</t>
-  </si>
-  <si>
-    <t>ROXAS version</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>x_cal</t>
-  </si>
-  <si>
-    <t>y_cal</t>
-  </si>
-  <si>
-    <t>Xcal</t>
-  </si>
-  <si>
-    <t>Ycal</t>
-  </si>
-  <si>
-    <t>First_author_last_name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Doi</t>
-  </si>
-  <si>
-    <t>first_author_last_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>doi</t>
-  </si>
-  <si>
-    <t>Spatial Resolution [pixels/µm]</t>
-  </si>
-  <si>
-    <t>File created</t>
-  </si>
-  <si>
-    <t>VNo</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>vd</t>
   </si>
 </sst>
 </file>
@@ -905,8 +905,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1094,7 +1096,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1178,6 +1180,7 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1261,6 +1264,7 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2225,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2456,10 +2460,10 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -2468,10 +2472,10 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2480,10 +2484,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2491,10 +2495,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2502,10 +2506,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2513,10 +2517,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2524,10 +2528,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2535,10 +2539,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2546,10 +2550,10 @@
         <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -2558,10 +2562,10 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -2570,10 +2574,10 @@
         <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -2582,10 +2586,10 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -2594,10 +2598,10 @@
         <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -2606,10 +2610,10 @@
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -2618,44 +2622,44 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2663,21 +2667,21 @@
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2685,10 +2689,10 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2707,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2729,10 +2733,10 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2740,10 +2744,10 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2751,10 +2755,10 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2762,10 +2766,10 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2773,10 +2777,10 @@
         <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2784,10 +2788,10 @@
         <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2795,7 +2799,7 @@
         <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2803,7 +2807,7 @@
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2811,10 +2815,10 @@
         <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2822,10 +2826,10 @@
         <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2833,10 +2837,10 @@
         <v>161</v>
       </c>
       <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
         <v>209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2844,10 +2848,10 @@
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2855,10 +2859,10 @@
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2866,10 +2870,10 @@
         <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2877,10 +2881,10 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2888,10 +2892,10 @@
         <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2899,21 +2903,21 @@
         <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2921,10 +2925,10 @@
         <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2932,10 +2936,10 @@
         <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2943,10 +2947,10 @@
         <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2954,164 +2958,164 @@
         <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3153,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3157,7 +3161,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3165,7 +3169,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3173,7 +3177,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3206,42 +3210,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
   <si>
     <t>db_name</t>
   </si>
@@ -507,12 +507,6 @@
     <t>rdist</t>
   </si>
   <si>
-    <t>drad</t>
-  </si>
-  <si>
-    <t>dtan</t>
-  </si>
-  <si>
     <t>ldrad</t>
   </si>
   <si>
@@ -805,6 +799,27 @@
   </si>
   <si>
     <t>ROW</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Dendro2003</t>
+  </si>
+  <si>
+    <t>manip</t>
+  </si>
+  <si>
+    <t>Manip</t>
+  </si>
+  <si>
+    <t>CD*</t>
+  </si>
+  <si>
+    <t>RCTA*</t>
   </si>
 </sst>
 </file>
@@ -905,8 +920,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1096,7 +1123,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1181,6 +1208,12 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1265,6 +1298,12 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1535,7 +1574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1943,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2066,6 +2105,17 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2433,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2460,10 +2510,10 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -2472,10 +2522,10 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2484,10 +2534,10 @@
         <v>138</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2495,10 +2545,10 @@
         <v>139</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2506,10 +2556,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2517,10 +2567,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2528,10 +2578,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2539,10 +2589,10 @@
         <v>143</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2550,10 +2600,10 @@
         <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -2562,10 +2612,10 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -2574,10 +2624,10 @@
         <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -2586,10 +2636,10 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -2598,10 +2648,10 @@
         <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -2610,10 +2660,10 @@
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -2622,44 +2672,44 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2667,21 +2717,21 @@
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2689,10 +2739,21 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2709,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2733,10 +2794,10 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2744,10 +2805,10 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2755,10 +2816,10 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2766,10 +2827,10 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2777,10 +2838,10 @@
         <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2788,10 +2849,10 @@
         <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2799,7 +2860,10 @@
         <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2807,315 +2871,334 @@
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3153,7 +3236,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3161,7 +3244,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3169,7 +3252,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3177,7 +3260,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3210,42 +3293,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/db_upload/info/info_table.xlsx
+++ b/db_upload/info/info_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="265">
   <si>
     <t>db_name</t>
   </si>
@@ -657,12 +657,6 @@
     <t>CWTpi</t>
   </si>
   <si>
-    <t>roxas_full</t>
-  </si>
-  <si>
-    <t>roxas_row</t>
-  </si>
-  <si>
     <t>CWTba</t>
   </si>
   <si>
@@ -820,6 +814,21 @@
   </si>
   <si>
     <t>RCTA*</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>tracheid-sector</t>
+  </si>
+  <si>
+    <t>roxas-full</t>
+  </si>
+  <si>
+    <t>roxas-row</t>
   </si>
 </sst>
 </file>
@@ -920,8 +929,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,7 +1136,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1214,6 +1227,8 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1304,6 +1319,8 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1574,7 +1591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2110,10 +2127,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -2485,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2636,7 +2653,7 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
         <v>191</v>
@@ -2684,7 +2701,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
         <v>191</v>
@@ -2695,7 +2712,7 @@
         <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
@@ -2706,7 +2723,7 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>191</v>
@@ -2717,7 +2734,7 @@
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>192</v>
@@ -2725,10 +2742,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
         <v>192</v>
@@ -2739,7 +2756,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>191</v>
@@ -2750,7 +2767,7 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>191</v>
@@ -2770,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2901,7 +2918,7 @@
         <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2909,10 +2926,10 @@
         <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2920,10 +2937,10 @@
         <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2931,10 +2948,10 @@
         <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2942,10 +2959,10 @@
         <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2953,10 +2970,10 @@
         <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2964,18 +2981,18 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>191</v>
@@ -2986,10 +3003,10 @@
         <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2997,10 +3014,10 @@
         <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3008,10 +3025,10 @@
         <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3019,32 +3036,32 @@
         <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3052,10 +3069,10 @@
         <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3066,7 +3083,7 @@
         <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3077,7 +3094,7 @@
         <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3088,7 +3105,7 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3110,7 +3127,7 @@
         <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3118,7 +3135,7 @@
         <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
         <v>191</v>
@@ -3129,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>191</v>
@@ -3140,7 +3157,7 @@
         <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>191</v>
@@ -3148,21 +3165,21 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>191</v>
@@ -3170,10 +3187,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="C37" t="s">
         <v>191</v>
@@ -3181,24 +3198,35 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" t="s">
         <v>255</v>
-      </c>
-      <c r="C38" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3264,7 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3244,7 +3272,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3252,7 +3280,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3260,7 +3288,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3293,42 +3321,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
